--- a/plates_data.xlsx
+++ b/plates_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,8 @@
           <t>G</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>82269</t>
-        </is>
+      <c r="B2" t="n">
+        <v>82269</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -474,6 +472,400 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>https://c8.alamy.com/comp/A8G1XR/luxury-car-bmw-with-dubai-license-plate-photo-by-willy-matheisl-A8G1XR.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82269</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://c8.alamy.com/comp/A8G1XR/luxury-car-bmw-with-dubai-license-plate-photo-by-willy-matheisl-A8G1XR.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>56451</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.arabianbusiness.com/cloud/2023/03/03/abu-dhabi-roads.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://c8.alamy.com/comp/J0Y2CH/heavy-traffic-congestion-on-expressways-of-abu-dhabi-in-the-uae-J0Y2CH.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63679</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://c8.alamy.com/comp/J0Y2CH/heavy-traffic-congestion-on-expressways-of-abu-dhabi-in-the-uae-J0Y2CH.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>38741</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://c8.alamy.com/comp/J0Y2CH/heavy-traffic-congestion-on-expressways-of-abu-dhabi-in-the-uae-J0Y2CH.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://c8.alamy.com/compfr/mtbg9b/le-trafic-longue-file-d-attente-de-vehicules-a-airport-road-abu-dhabi-uae-mtbg9b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://c8.alamy.com/compfr/mtbg9b/le-trafic-longue-file-d-attente-de-vehicules-a-airport-road-abu-dhabi-uae-mtbg9b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://thenational-the-national-prod.cdn.arcpublishing.com/resizer/hCvSjgBDPtvsX7swqCDqEbPHQXs=/800x0/filters:format(jpg):quality(70)/cloudfront-eu-central-1.images.arcpublishing.com/thenational/IROAWPXE5GZFQOTD5PJ27YWCR4.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://thenational-the-national-prod.cdn.arcpublishing.com/resizer/hCvSjgBDPtvsX7swqCDqEbPHQXs=/800x0/filters:format(jpg):quality(70)/cloudfront-eu-central-1.images.arcpublishing.com/thenational/IROAWPXE5GZFQOTD5PJ27YWCR4.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>296</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://thenational-the-national-prod.cdn.arcpublishing.com/resizer/hCvSjgBDPtvsX7swqCDqEbPHQXs=/800x0/filters:format(jpg):quality(70)/cloudfront-eu-central-1.images.arcpublishing.com/thenational/IROAWPXE5GZFQOTD5PJ27YWCR4.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8770</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://previews.agefotostock.com/previewimage/medibigoff/3430d7be76f029d116507681a00041bf/a91-2003755.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>3428</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.thenationalnews.com/resizer/b76XhFbGq9Bqks89yeQJYDu9-CU=/arc-photo-thenational/eu-central-1-prod/public/4O4QJSOAVRMDKC35UA2R6ZOSXA.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>39</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.thenationalnews.com/resizer/b76XhFbGq9Bqks89yeQJYDu9-CU=/arc-photo-thenational/eu-central-1-prod/public/4O4QJSOAVRMDKC35UA2R6ZOSXA.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://image.khaleejtimes.com/?uuid=fd2d2e66-1913-479a-9be9-5d77b2d37a5e&amp;function=fit&amp;type=preview&amp;source=false&amp;q=75&amp;maxsize=1200&amp;scaleup=0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5051</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://image.khaleejtimes.com/?uuid=fd2d2e66-1913-479a-9be9-5d77b2d37a5e&amp;function=fit&amp;type=preview&amp;source=false&amp;q=75&amp;maxsize=1200&amp;scaleup=0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>539</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://static.toiimg.com/photo/39815151.cms</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://image.khaleejtimes.com/?uuid=3f146c7a-5533-5898-b603-fa1fcf417c2e&amp;function=cropresize&amp;type=preview&amp;source=false&amp;q=75&amp;crop_w=0.99999&amp;crop_h=0.96257&amp;x=0&amp;y=0&amp;width=1200&amp;height=675</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://image.khaleejtimes.com/?uuid=3f146c7a-5533-5898-b603-fa1fcf417c2e&amp;function=cropresize&amp;type=preview&amp;source=false&amp;q=75&amp;crop_w=0.99999&amp;crop_h=0.96257&amp;x=0&amp;y=0&amp;width=1200&amp;height=675</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://image.khaleejtimes.com/?uuid=3f146c7a-5533-5898-b603-fa1fcf417c2e&amp;function=cropresize&amp;type=preview&amp;source=false&amp;q=75&amp;crop_w=0.99999&amp;crop_h=0.96257&amp;x=0&amp;y=0&amp;width=1200&amp;height=675</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://media.gettyimages.com/id/1237783762/photo/drivers-take-a-road-leading-to-abu-dhabis-airport-in-the-capital-of-the-united-arab-emirates.jpg?s=612x612&amp;w=gi&amp;k=20&amp;c=knbIk9uxgO-koz003NCZWq0wAtyVkiNpxH6S4z3tWRI=</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://media.gettyimages.com/id/1237783762/photo/drivers-take-a-road-leading-to-abu-dhabis-airport-in-the-capital-of-the-united-arab-emirates.jpg?s=612x612&amp;w=gi&amp;k=20&amp;c=knbIk9uxgO-koz003NCZWq0wAtyVkiNpxH6S4z3tWRI=</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>couldn't be detected</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://c8.alamy.com/comp/PNXNR1/abu-dhabi-uae-march-26-2012-traffic-moves-along-the-dubai-abu-dhabi-highway-in-view-is-the-6-lane-cariageway-to-abu-dhabi-PNXNR1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5904</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://c8.alamy.com/comp/PNXNR1/abu-dhabi-uae-march-26-2012-traffic-moves-along-the-dubai-abu-dhabi-highway-in-view-is-the-6-lane-cariageway-to-abu-dhabi-PNXNR1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>41886</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.timeoutdubai.com/cloud/timeoutdubai/2021/09/18/J9zFoZNY-mestafusion3_2016_base.jpg</t>
         </is>
       </c>
     </row>
